--- a/figs/bunmd_chart.xlsx
+++ b/figs/bunmd_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casey/Documents/censoc/bunmd_paper/illustrations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caseybreen/workspace/bunmd/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCD180-7E7D-B048-B028-863BC3F0B58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA25F3-4E64-AA43-829D-812BE98EF91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="-340" windowWidth="38200" windowHeight="21900" xr2:uid="{452CFEE0-C7D5-3243-AC7A-F2028922B8D4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{452CFEE0-C7D5-3243-AC7A-F2028922B8D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>4*</t>
   </si>
   <si>
-    <t>Table 1: Constructing the BUNMD from NARA Numident Records</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -183,6 +180,9 @@
       </rPr>
       <t xml:space="preserve">: Bolded values were selected for in the BUNMD. Starred values represent contructed variables not in the original records. Various features of the BUNMD creation algorithm can been seen here. For example, we select a person's first and last name from their death entries. We select the race and birthplace (bpl) from the application records. We use a crosswalk to recode the original two-letter character birthplace codes into a numeric code schema. We select race information from the application files to construct the race_first and race_last variables. The death_age and number_apps variables are not included in the original records but were constructed post-hoc using information in the original records. </t>
     </r>
+  </si>
+  <si>
+    <t>Table 2: Constructing the BUNMD from NARA Numident Records</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
     </row>
     <row r="24" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
